--- a/src/data/out/people.xlsx
+++ b/src/data/out/people.xlsx
@@ -421,8 +421,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
